--- a/rhla_analysis/rhla1_6_exp_result/k4.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k4.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01414490017683496</v>
+        <v>0.01443166669060545</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2621283584443241</v>
+        <v>0.2634008497922756</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1892583120204604</v>
+        <v>0.13306177868296</v>
       </c>
       <c r="D2" t="n">
-        <v>18.53165134905727</v>
+        <v>18.25158905337947</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.03405534985123038</v>
+        <v>0.03391309437530868</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2906916997923377</v>
+        <v>0.2902656828668277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1773231031543052</v>
+        <v>0.1371350984385608</v>
       </c>
       <c r="D3" t="n">
-        <v>8.535860035566053</v>
+        <v>8.559103444071543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01248348254235276</v>
+        <v>0.01296994514714198</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2986645478199996</v>
+        <v>0.2991227330378343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1713554987212276</v>
+        <v>0.1188051595383571</v>
       </c>
       <c r="D4" t="n">
-        <v>23.92477794611553</v>
+        <v>23.06276006909313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0112559523602915</v>
+        <v>0.01118587858569408</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2871659207174349</v>
+        <v>0.2887579889028822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.164535379369139</v>
+        <v>0.1140529531568228</v>
       </c>
       <c r="D5" t="n">
-        <v>25.51236106244482</v>
+        <v>25.81451127783405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.008616157365545662</v>
+        <v>0.00890175420310399</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2929876167277055</v>
+        <v>0.2951924389805913</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1602728047740835</v>
+        <v>0.1079429735234216</v>
       </c>
       <c r="D6" t="n">
-        <v>34.00444122565657</v>
+        <v>33.16115366088848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02010719379945048</v>
+        <v>0.01899270087434492</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2959561025174206</v>
+        <v>0.2949970184314221</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1709292412617221</v>
+        <v>0.1205023761031908</v>
       </c>
       <c r="D7" t="n">
-        <v>14.71891629778338</v>
+        <v>15.53212575626355</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01048781840095601</v>
+        <v>0.01041776851719185</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2608860978603729</v>
+        <v>0.2572089839871962</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1888320545609548</v>
+        <v>0.1395112016293279</v>
       </c>
       <c r="D8" t="n">
-        <v>24.87515400119744</v>
+        <v>24.68945087066763</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01503366838850025</v>
+        <v>0.01347143909467497</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2610285916322558</v>
+        <v>0.262179759660356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1205023761031908</v>
       </c>
       <c r="D9" t="n">
-        <v>17.36293397504532</v>
+        <v>19.46189696719121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01051636675147646</v>
+        <v>0.009416721750189547</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2735550134136543</v>
+        <v>0.2754198608634705</v>
       </c>
       <c r="C10" t="n">
-        <v>0.170076726342711</v>
+        <v>0.1269517990495587</v>
       </c>
       <c r="D10" t="n">
-        <v>26.01231203497617</v>
+        <v>29.24795572917153</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01308643115814293</v>
+        <v>0.0144264640229068</v>
       </c>
       <c r="B11" t="n">
-        <v>0.268724149484336</v>
+        <v>0.2701605955381907</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1807331628303495</v>
+        <v>0.131704005431093</v>
       </c>
       <c r="D11" t="n">
-        <v>20.53456333792919</v>
+        <v>18.72673685729373</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_exp_result/k4.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k4.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01443166669060545</v>
+        <v>0.01443166669060531</v>
       </c>
       <c r="B2" t="n">
         <v>0.2634008497922756</v>
@@ -466,12 +466,12 @@
         <v>0.13306177868296</v>
       </c>
       <c r="D2" t="n">
-        <v>18.25158905337947</v>
+        <v>18.25158905337964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.03391309437530868</v>
+        <v>0.03391309437530869</v>
       </c>
       <c r="B3" t="n">
         <v>0.2902656828668277</v>
@@ -480,12 +480,12 @@
         <v>0.1371350984385608</v>
       </c>
       <c r="D3" t="n">
-        <v>8.559103444071543</v>
+        <v>8.559103444071539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01296994514714198</v>
+        <v>0.012969945147142</v>
       </c>
       <c r="B4" t="n">
         <v>0.2991227330378343</v>
@@ -494,12 +494,12 @@
         <v>0.1188051595383571</v>
       </c>
       <c r="D4" t="n">
-        <v>23.06276006909313</v>
+        <v>23.06276006909309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01118587858569408</v>
+        <v>0.01118587858569406</v>
       </c>
       <c r="B5" t="n">
         <v>0.2887579889028822</v>
@@ -508,12 +508,12 @@
         <v>0.1140529531568228</v>
       </c>
       <c r="D5" t="n">
-        <v>25.81451127783405</v>
+        <v>25.8145112778341</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00890175420310399</v>
+        <v>0.00890175420310404</v>
       </c>
       <c r="B6" t="n">
         <v>0.2951924389805913</v>
@@ -522,7 +522,7 @@
         <v>0.1079429735234216</v>
       </c>
       <c r="D6" t="n">
-        <v>33.16115366088848</v>
+        <v>33.1611536608883</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01041776851719185</v>
+        <v>0.01041776851719189</v>
       </c>
       <c r="B8" t="n">
         <v>0.2572089839871962</v>
@@ -550,12 +550,12 @@
         <v>0.1395112016293279</v>
       </c>
       <c r="D8" t="n">
-        <v>24.68945087066763</v>
+        <v>24.68945087066755</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01347143909467497</v>
+        <v>0.01347143909467486</v>
       </c>
       <c r="B9" t="n">
         <v>0.262179759660356</v>
@@ -564,12 +564,12 @@
         <v>0.1205023761031908</v>
       </c>
       <c r="D9" t="n">
-        <v>19.46189696719121</v>
+        <v>19.46189696719138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.009416721750189547</v>
+        <v>0.009416721750189564</v>
       </c>
       <c r="B10" t="n">
         <v>0.2754198608634705</v>
@@ -578,7 +578,7 @@
         <v>0.1269517990495587</v>
       </c>
       <c r="D10" t="n">
-        <v>29.24795572917153</v>
+        <v>29.24795572917147</v>
       </c>
     </row>
     <row r="11">
@@ -592,7 +592,7 @@
         <v>0.131704005431093</v>
       </c>
       <c r="D11" t="n">
-        <v>18.72673685729373</v>
+        <v>18.72673685729372</v>
       </c>
     </row>
   </sheetData>
